--- a/results_G2/forces/permeation_frames_forces.xlsx
+++ b/results_G2/forces/permeation_frames_forces.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,455 +483,105 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2397</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>594</v>
+        <v>969</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-12.920562520623207, 17.63073266670108, -7.267282247543335]</t>
+          <t>[-0.6533946990966797, -10.039370894432068, -4.531984925270081]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>23.03469256316377</v>
+        <v>11.03425484351583</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.033864768512299</v>
+        <v>2.553530372264492</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.3487723895807388</v>
+        <v>0.2314184698901573</v>
       </c>
       <c r="G2" t="n">
-        <v>21.85826320213968</v>
+        <v>10.06061094510554</v>
       </c>
       <c r="H2" t="n">
-        <v>-7.267282247543335</v>
+        <v>-4.531984925270081</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[3.486774444580078, -5.9720001220703125, -8.539749145507812]</t>
+          <t>[5.960777282714844, 2.729267120361328, -17.362136840820312]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2399</t>
+          <t>2381</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>692</v>
+        <v>946</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[8.804081737995148, 0.3854767978191376, -1.8715763092041016]</t>
+          <t>[9.601044714450836, -11.661227077245712, -1.726461909711361]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9.009064629146058</v>
+        <v>15.20345182126931</v>
       </c>
       <c r="E3" t="n">
-        <v>2.104128715708714</v>
+        <v>-4.06156019053805</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2335568455021904</v>
+        <v>-0.2671472398693047</v>
       </c>
       <c r="G3" t="n">
-        <v>8.812516531102597</v>
+        <v>15.10510763139319</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.871576309204102</v>
+        <v>-1.726461909711361</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[0.3143463134765625, -1.2615242004394531, -8.960662841796875]</t>
+          <t>[-0.46352386474609375, 6.322200775146484, -12.438140869140625]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2398</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>565</v>
+        <v>959</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-0.7639022618532181, 4.1012390702962875, -19.930686593055725]</t>
+          <t>[4.858075797557831, 4.064697861671448, -12.652370154857635]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>20.36261222554711</v>
+        <v>14.14938654843474</v>
       </c>
       <c r="E4" t="n">
-        <v>19.13130058928689</v>
+        <v>10.54082602599564</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9395307624276515</v>
+        <v>0.7449669983863509</v>
       </c>
       <c r="G4" t="n">
-        <v>4.171775230928581</v>
+        <v>6.334245745271775</v>
       </c>
       <c r="H4" t="n">
-        <v>-19.93068659305573</v>
+        <v>-12.65237015485764</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[3.2506446838378906, -1.1598472595214844, -17.24256134033203]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2397</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>969</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>[-0.6533946990966797, -10.039370059967041, -4.531984776258469]</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>11.03425402308687</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2.553530355577822</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.2314184855845346</v>
-      </c>
-      <c r="G5" t="n">
-        <v>10.06061011240224</v>
-      </c>
-      <c r="H5" t="n">
-        <v>-4.531984776258469</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>[5.960777282714844, 2.729267120361328, -17.362136840820312]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2276</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>707</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>[0.7507225573062897, 4.773991197347641, -15.556918144226074]</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>16.29025102497048</v>
-      </c>
-      <c r="E6" t="n">
-        <v>9.975358728624318</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.6123514434083066</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4.832657272184864</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-15.55691814422607</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>[1.5978927612304688, -2.971912384033203, -4.38037109375]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2520</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>787</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>[-13.154578566551208, 3.3986346274614334, -9.698930323123932]</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>16.69319933408097</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.148076982409002</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.1885844001144743</v>
-      </c>
-      <c r="G7" t="n">
-        <v>13.58652474308822</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-9.698930323123932</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>[7.958831787109375, 0.7162055969238281, -16.491683959960938]</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2223</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>959</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>[4.85807591676712, 4.0646979212760925, -12.652371108531952]</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>14.14938745926172</v>
-      </c>
-      <c r="E8" t="n">
-        <v>10.54082691116718</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.7449670129901985</v>
-      </c>
-      <c r="G8" t="n">
-        <v>6.334245874948247</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-12.65237110853195</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
           <t>[-1.7506599426269531, -5.281822204589844, -18.320533752441406]</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2391</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>777</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>[2.6081194430589676, -4.2312188148498535, -9.195363759994507]</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>10.45276108820162</v>
-      </c>
-      <c r="E9" t="n">
-        <v>8.878427138099886</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.8493858286038185</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4.970462723771462</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-9.195363759994507</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>[0.9539413452148438, 1.3969001770019531, -13.710983276367188]</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2247</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>794</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>[0.25486694276332855, 3.973426640033722, -6.730924963951111]</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>7.820385367268257</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3.182860451367143</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.4069953463788129</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3.98159219687843</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-6.730924963951111</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>[2.0873985290527344, -2.63055419921875, -3.9116897583007812]</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2381</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>946</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>[9.601044237613678, -11.661227107048035, -1.7264618799090385]</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>15.20345153961908</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-4.061560214754879</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.2671472464111686</v>
-      </c>
-      <c r="G11" t="n">
-        <v>15.10510735131554</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-1.726461879909039</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>[-0.46352386474609375, 6.322200775146484, -12.438140869140625]</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2343</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1186</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>[2.4428126215934753, 0.49578909622505307, -8.41463577747345]</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>8.7760603689633</v>
-      </c>
-      <c r="E12" t="n">
-        <v>8.280676746972738</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.9435528470448431</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2.492617165180414</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-8.41463577747345</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>[4.815853118896484, -3.690704345703125, -12.438545227050781]</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2230</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1225</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>[-0.9318812191486359, -2.220571478828788, -13.284280061721802]</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>13.50079394174466</v>
-      </c>
-      <c r="E13" t="n">
-        <v>13.21380134611099</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.978742539374201</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2.408181948937791</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-13.2842800617218</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>[1.012481689453125, -0.3558006286621094, -11.524864196777344]</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2515</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1219</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>[-7.849294036626816, 10.417173475027084, -12.752289831638336]</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>18.24143130437794</v>
-      </c>
-      <c r="E14" t="n">
-        <v>5.720300019439035</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.3135883321867491</v>
-      </c>
-      <c r="G14" t="n">
-        <v>13.04334773293395</v>
-      </c>
-      <c r="H14" t="n">
-        <v>-12.75228983163834</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>[9.918651580810547, -4.4640045166015625, -19.940650939941406]</t>
         </is>
       </c>
     </row>

--- a/results_G2/forces/permeation_frames_forces.xlsx
+++ b/results_G2/forces/permeation_frames_forces.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,105 +483,490 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2397</t>
+          <t>2400</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>969</v>
+        <v>594</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-0.6533946990966797, -10.039370894432068, -4.531984925270081]</t>
+          <t>[-12.920562520623207, 17.63073266670108, -7.267282247543335]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>11.03425484351583</v>
+        <v>23.03469256316377</v>
       </c>
       <c r="E2" t="n">
-        <v>2.553530372264492</v>
+        <v>-8.033864768512299</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2314184698901573</v>
+        <v>-0.3487723895807388</v>
       </c>
       <c r="G2" t="n">
-        <v>10.06061094510554</v>
+        <v>21.85826320213968</v>
       </c>
       <c r="H2" t="n">
-        <v>-4.531984925270081</v>
+        <v>-7.267282247543335</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[5.960777282714844, 2.729267120361328, -17.362136840820312]</t>
+          <t>[3.486774444580078, -5.9720001220703125, -8.539749145507812]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2381</t>
+          <t>2399</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>946</v>
+        <v>692</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[9.601044714450836, -11.661227077245712, -1.726461909711361]</t>
+          <t>[8.804081737995148, 0.3854767978191376, -1.8715763092041016]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>15.20345182126931</v>
+        <v>9.009064629146058</v>
       </c>
       <c r="E3" t="n">
-        <v>-4.06156019053805</v>
+        <v>2.104128715708714</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2671472398693047</v>
+        <v>0.2335568455021904</v>
       </c>
       <c r="G3" t="n">
-        <v>15.10510763139319</v>
+        <v>8.812516531102597</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.726461909711361</v>
+        <v>-1.871576309204102</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[-0.46352386474609375, 6.322200775146484, -12.438140869140625]</t>
+          <t>[0.3143463134765625, -1.2615242004394531, -8.960662841796875]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2398</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>565</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[-0.7639022618532181, 4.1012390702962875, -19.930686593055725]</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>20.36261222554711</v>
+      </c>
+      <c r="E4" t="n">
+        <v>19.13130058928689</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9395307624276515</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.171775230928581</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-19.93068659305573</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[3.2506446838378906, -1.1598472595214844, -17.24256134033203]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2397</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>969</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[-0.6533946990966797, -10.039370059967041, -4.531984776258469]</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>11.03425402308687</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.553530355577822</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.2314184855845346</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10.06061011240224</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-4.531984776258469</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[5.960777282714844, 2.729267120361328, -17.362136840820312]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2276</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>707</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[0.7507225573062897, 4.773991197347641, -15.556918144226074]</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>16.29025102497048</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9.975358728624318</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6123514434083066</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4.832657272184864</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-15.55691814422607</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[1.5978927612304688, -2.971912384033203, -4.38037109375]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2520</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>787</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[-13.154578566551208, 3.3986346274614334, -9.698930323123932]</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>16.69319933408097</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.148076982409002</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1885844001144743</v>
+      </c>
+      <c r="G7" t="n">
+        <v>13.58652474308822</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-9.698930323123932</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[7.958831787109375, 0.7162055969238281, -16.491683959960938]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>2223</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B8" t="n">
         <v>959</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[4.858075797557831, 4.064697861671448, -12.652370154857635]</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>14.14938654843474</v>
-      </c>
-      <c r="E4" t="n">
-        <v>10.54082602599564</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.7449669983863509</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6.334245745271775</v>
-      </c>
-      <c r="H4" t="n">
-        <v>-12.65237015485764</v>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[4.85807591676712, 4.0646979212760925, -12.652371108531952]</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>14.14938745926172</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10.54082691116718</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.7449670129901985</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6.334245874948247</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-12.65237110853195</v>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>[-1.7506599426269531, -5.281822204589844, -18.320533752441406]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2391</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>777</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[2.6081194430589676, -4.2312188148498535, -9.195363759994507]</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>10.45276108820162</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8.878427138099886</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.8493858286038185</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4.970462723771462</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-9.195363759994507</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[0.9539413452148438, 1.3969001770019531, -13.710983276367188]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2247</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>794</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[0.25486694276332855, 3.973426640033722, -6.730924963951111]</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>7.820385367268257</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.182860451367143</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.4069953463788129</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.98159219687843</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-6.730924963951111</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[2.0873985290527344, -2.63055419921875, -3.9116897583007812]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2231</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>806</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[6.534557104110718, 3.7390658259391785, 4.73402202129364]</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>8.893369119500393</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-4.397830002368352</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.4945066310949894</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7.528681810090666</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.73402202129364</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[0.74676513671875, 0.5153694152832031, -20.509132385253906]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2381</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>946</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[9.601044237613678, -11.661227107048035, -1.7264618799090385]</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>15.20345153961908</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-4.061560214754879</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.2671472464111686</v>
+      </c>
+      <c r="G12" t="n">
+        <v>15.10510735131554</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-1.726461879909039</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[-0.46352386474609375, 6.322200775146484, -12.438140869140625]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2343</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1186</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[2.4428126215934753, 0.49578909622505307, -8.41463577747345]</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>8.7760603689633</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8.280676746972738</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9435528470448431</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.492617165180414</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-8.41463577747345</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>[4.815853118896484, -3.690704345703125, -12.438545227050781]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2230</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1225</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[-0.9318812191486359, -2.220571478828788, -13.284280061721802]</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>13.50079394174466</v>
+      </c>
+      <c r="E14" t="n">
+        <v>13.21380134611099</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.978742539374201</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.408181948937791</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-13.2842800617218</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>[1.012481689453125, -0.3558006286621094, -11.524864196777344]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2515</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1219</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[-7.849294036626816, 10.417173475027084, -12.752289831638336]</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>18.24143130437794</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5.720300019439035</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.3135883321867491</v>
+      </c>
+      <c r="G15" t="n">
+        <v>13.04334773293395</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-12.75228983163834</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>[9.918651580810547, -4.4640045166015625, -19.940650939941406]</t>
         </is>
       </c>
     </row>

--- a/results_G2/forces/permeation_frames_forces.xlsx
+++ b/results_G2/forces/permeation_frames_forces.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,490 +483,105 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2397</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>594</v>
+        <v>969</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-12.920562520623207, 17.63073266670108, -7.267282247543335]</t>
+          <t>[-0.6533946990966797, -10.039370059967041, -4.531984776258469]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>23.03469256316377</v>
+        <v>11.03425402308687</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.033864768512299</v>
+        <v>2.553530355577822</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.3487723895807388</v>
+        <v>0.2314184855845346</v>
       </c>
       <c r="G2" t="n">
-        <v>21.85826320213968</v>
+        <v>10.06061011240224</v>
       </c>
       <c r="H2" t="n">
-        <v>-7.267282247543335</v>
+        <v>-4.531984776258469</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[3.486774444580078, -5.9720001220703125, -8.539749145507812]</t>
+          <t>[5.960777282714844, 2.729267120361328, -17.362136840820312]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2399</t>
+          <t>2381</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>692</v>
+        <v>946</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[8.804081737995148, 0.3854767978191376, -1.8715763092041016]</t>
+          <t>[9.601044237613678, -11.661227107048035, -1.7264618799090385]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9.009064629146058</v>
+        <v>15.20345153961908</v>
       </c>
       <c r="E3" t="n">
-        <v>2.104128715708714</v>
+        <v>-4.061560214754879</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2335568455021904</v>
+        <v>-0.2671472464111686</v>
       </c>
       <c r="G3" t="n">
-        <v>8.812516531102597</v>
+        <v>15.10510735131554</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.871576309204102</v>
+        <v>-1.726461879909039</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[0.3143463134765625, -1.2615242004394531, -8.960662841796875]</t>
+          <t>[-0.46352386474609375, 6.322200775146484, -12.438140869140625]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2398</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>565</v>
+        <v>959</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-0.7639022618532181, 4.1012390702962875, -19.930686593055725]</t>
+          <t>[4.85807591676712, 4.0646979212760925, -12.652371108531952]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>20.36261222554711</v>
+        <v>14.14938745926172</v>
       </c>
       <c r="E4" t="n">
-        <v>19.13130058928689</v>
+        <v>10.54082691116718</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9395307624276515</v>
+        <v>0.7449670129901985</v>
       </c>
       <c r="G4" t="n">
-        <v>4.171775230928581</v>
+        <v>6.334245874948247</v>
       </c>
       <c r="H4" t="n">
-        <v>-19.93068659305573</v>
+        <v>-12.65237110853195</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[3.2506446838378906, -1.1598472595214844, -17.24256134033203]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2397</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>969</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>[-0.6533946990966797, -10.039370059967041, -4.531984776258469]</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>11.03425402308687</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2.553530355577822</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.2314184855845346</v>
-      </c>
-      <c r="G5" t="n">
-        <v>10.06061011240224</v>
-      </c>
-      <c r="H5" t="n">
-        <v>-4.531984776258469</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>[5.960777282714844, 2.729267120361328, -17.362136840820312]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2276</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>707</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>[0.7507225573062897, 4.773991197347641, -15.556918144226074]</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>16.29025102497048</v>
-      </c>
-      <c r="E6" t="n">
-        <v>9.975358728624318</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.6123514434083066</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4.832657272184864</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-15.55691814422607</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>[1.5978927612304688, -2.971912384033203, -4.38037109375]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2520</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>787</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>[-13.154578566551208, 3.3986346274614334, -9.698930323123932]</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>16.69319933408097</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.148076982409002</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.1885844001144743</v>
-      </c>
-      <c r="G7" t="n">
-        <v>13.58652474308822</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-9.698930323123932</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>[7.958831787109375, 0.7162055969238281, -16.491683959960938]</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2223</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>959</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>[4.85807591676712, 4.0646979212760925, -12.652371108531952]</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>14.14938745926172</v>
-      </c>
-      <c r="E8" t="n">
-        <v>10.54082691116718</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.7449670129901985</v>
-      </c>
-      <c r="G8" t="n">
-        <v>6.334245874948247</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-12.65237110853195</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
           <t>[-1.7506599426269531, -5.281822204589844, -18.320533752441406]</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2391</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>777</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>[2.6081194430589676, -4.2312188148498535, -9.195363759994507]</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>10.45276108820162</v>
-      </c>
-      <c r="E9" t="n">
-        <v>8.878427138099886</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.8493858286038185</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4.970462723771462</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-9.195363759994507</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>[0.9539413452148438, 1.3969001770019531, -13.710983276367188]</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2247</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>794</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>[0.25486694276332855, 3.973426640033722, -6.730924963951111]</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>7.820385367268257</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3.182860451367143</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.4069953463788129</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3.98159219687843</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-6.730924963951111</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>[2.0873985290527344, -2.63055419921875, -3.9116897583007812]</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2231</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>806</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>[6.534557104110718, 3.7390658259391785, 4.73402202129364]</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>8.893369119500393</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-4.397830002368352</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.4945066310949894</v>
-      </c>
-      <c r="G11" t="n">
-        <v>7.528681810090666</v>
-      </c>
-      <c r="H11" t="n">
-        <v>4.73402202129364</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>[0.74676513671875, 0.5153694152832031, -20.509132385253906]</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2381</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>946</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>[9.601044237613678, -11.661227107048035, -1.7264618799090385]</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>15.20345153961908</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-4.061560214754879</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.2671472464111686</v>
-      </c>
-      <c r="G12" t="n">
-        <v>15.10510735131554</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-1.726461879909039</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>[-0.46352386474609375, 6.322200775146484, -12.438140869140625]</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2343</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1186</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>[2.4428126215934753, 0.49578909622505307, -8.41463577747345]</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>8.7760603689633</v>
-      </c>
-      <c r="E13" t="n">
-        <v>8.280676746972738</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.9435528470448431</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2.492617165180414</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-8.41463577747345</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>[4.815853118896484, -3.690704345703125, -12.438545227050781]</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2230</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1225</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>[-0.9318812191486359, -2.220571478828788, -13.284280061721802]</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>13.50079394174466</v>
-      </c>
-      <c r="E14" t="n">
-        <v>13.21380134611099</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.978742539374201</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2.408181948937791</v>
-      </c>
-      <c r="H14" t="n">
-        <v>-13.2842800617218</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>[1.012481689453125, -0.3558006286621094, -11.524864196777344]</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2515</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1219</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>[-7.849294036626816, 10.417173475027084, -12.752289831638336]</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>18.24143130437794</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5.720300019439035</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.3135883321867491</v>
-      </c>
-      <c r="G15" t="n">
-        <v>13.04334773293395</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-12.75228983163834</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>[9.918651580810547, -4.4640045166015625, -19.940650939941406]</t>
         </is>
       </c>
     </row>

--- a/results_G2/forces/permeation_frames_forces.xlsx
+++ b/results_G2/forces/permeation_frames_forces.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,105 +483,245 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2397</t>
+          <t>2333</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>969</v>
+        <v>1248</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-0.6533946990966797, -10.039370059967041, -4.531984776258469]</t>
+          <t>[-3.3383673429489136, 11.95009446144104, -6.190477780997753]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>11.03425402308687</v>
+        <v>13.86619880539935</v>
       </c>
       <c r="E2" t="n">
-        <v>2.553530355577822</v>
+        <v>9.180969760765738</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2314184855845346</v>
+        <v>0.6621115050788658</v>
       </c>
       <c r="G2" t="n">
-        <v>10.06061011240224</v>
+        <v>12.40763692867548</v>
       </c>
       <c r="H2" t="n">
-        <v>-4.531984776258469</v>
+        <v>-6.190477780997753</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[5.960777282714844, 2.729267120361328, -17.362136840820312]</t>
+          <t>[-1.2147483825683594, 0.6887054443359375, -0.09078216552734375]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2381</t>
+          <t>2343</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>946</v>
+        <v>1186</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[9.601044237613678, -11.661227107048035, -1.7264618799090385]</t>
+          <t>[2.4428126215934753, 0.49578909622505307, -8.41463577747345]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>15.20345153961908</v>
+        <v>8.7760603689633</v>
       </c>
       <c r="E3" t="n">
-        <v>-4.061560214754879</v>
+        <v>8.280676746972738</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2671472464111686</v>
+        <v>0.9435528470448431</v>
       </c>
       <c r="G3" t="n">
-        <v>15.10510735131554</v>
+        <v>2.492617165180414</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.726461879909039</v>
+        <v>-8.41463577747345</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[-0.46352386474609375, 6.322200775146484, -12.438140869140625]</t>
+          <t>[4.815853118896484, -3.690704345703125, -12.438545227050781]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2223</t>
+          <t>2372</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>959</v>
+        <v>1248</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[4.85807591676712, 4.0646979212760925, -12.652371108531952]</t>
+          <t>[-9.981672696769238, -4.027546465396881, -5.427530646324158]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>14.14938745926172</v>
+        <v>12.05458457488881</v>
       </c>
       <c r="E4" t="n">
-        <v>10.54082691116718</v>
+        <v>-10.895716383016</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7449670129901985</v>
+        <v>-0.9038649416184051</v>
       </c>
       <c r="G4" t="n">
-        <v>6.334245874948247</v>
+        <v>10.76359235368747</v>
       </c>
       <c r="H4" t="n">
-        <v>-12.65237110853195</v>
+        <v>-5.427530646324158</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[-1.7506599426269531, -5.281822204589844, -18.320533752441406]</t>
+          <t>[3.4089317321777344, 1.604522705078125, 0.10662841796875]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2334</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1248</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[3.699047952890396, -14.163208246231079, -8.058695323765278]</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>16.70993698088557</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-2.613813113001731</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.1564226792711224</v>
+      </c>
+      <c r="G5" t="n">
+        <v>14.63828622427812</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-8.058695323765278</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[-5.621417999267578, 1.4537582397460938, -3.01348876953125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2230</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1225</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[-0.9318812191486359, -2.220571478828788, -13.284280061721802]</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>13.50079394174466</v>
+      </c>
+      <c r="E6" t="n">
+        <v>13.21380134611099</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.978742539374201</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.408181948937791</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-13.2842800617218</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[1.012481689453125, -0.3558006286621094, -11.524864196777344]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2515</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1219</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[-7.849294036626816, 10.417173475027084, -12.752289831638336]</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>18.24143130437794</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5.720300019439035</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.3135883321867491</v>
+      </c>
+      <c r="G7" t="n">
+        <v>13.04334773293395</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-12.75228983163834</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[9.918651580810547, -4.4640045166015625, -19.940650939941406]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2280</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1248</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[13.266657590866089, 2.8086227253079414, -3.7235074639320374]</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>14.06261259796197</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5318098541636465</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.03781728682767804</v>
+      </c>
+      <c r="G8" t="n">
+        <v>13.56069929046438</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-3.723507463932037</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[-0.21262359619140625, 0.6027069091796875, -0.4115142822265625]</t>
         </is>
       </c>
     </row>

--- a/results_G2/forces/permeation_frames_forces.xlsx
+++ b/results_G2/forces/permeation_frames_forces.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,243 +483,628 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2333</t>
+          <t>2400</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1248</v>
+        <v>594</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-3.3383673429489136, 11.95009446144104, -6.190477780997753]</t>
+          <t>[-12.920562520623207, 17.63073266670108, -7.267282247543335]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>13.86619880539935</v>
+        <v>23.03469256316377</v>
       </c>
       <c r="E2" t="n">
-        <v>9.180969760765738</v>
+        <v>-8.033864768512299</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6621115050788658</v>
+        <v>-0.3487723895807388</v>
       </c>
       <c r="G2" t="n">
-        <v>12.40763692867548</v>
+        <v>21.85826320213968</v>
       </c>
       <c r="H2" t="n">
-        <v>-6.190477780997753</v>
+        <v>-7.267282247543335</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[-1.2147483825683594, 0.6887054443359375, -0.09078216552734375]</t>
+          <t>[3.486774444580078, -5.9720001220703125, -8.539749145507812]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2343</t>
+          <t>2399</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1186</v>
+        <v>692</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[2.4428126215934753, 0.49578909622505307, -8.41463577747345]</t>
+          <t>[8.804081737995148, 0.3854767978191376, -1.8715763092041016]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8.7760603689633</v>
+        <v>9.009064629146058</v>
       </c>
       <c r="E3" t="n">
-        <v>8.280676746972738</v>
+        <v>2.104128715708714</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9435528470448431</v>
+        <v>0.2335568455021904</v>
       </c>
       <c r="G3" t="n">
-        <v>2.492617165180414</v>
+        <v>8.812516531102597</v>
       </c>
       <c r="H3" t="n">
-        <v>-8.41463577747345</v>
+        <v>-1.871576309204102</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[4.815853118896484, -3.690704345703125, -12.438545227050781]</t>
+          <t>[0.3143463134765625, -1.2615242004394531, -8.960662841796875]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2372</t>
+          <t>2398</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1248</v>
+        <v>565</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-9.981672696769238, -4.027546465396881, -5.427530646324158]</t>
+          <t>[-0.7639022618532181, 4.1012390702962875, -19.930686593055725]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12.05458457488881</v>
+        <v>20.36261222554711</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.895716383016</v>
+        <v>19.13130058928689</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.9038649416184051</v>
+        <v>0.9395307624276515</v>
       </c>
       <c r="G4" t="n">
-        <v>10.76359235368747</v>
+        <v>4.171775230928581</v>
       </c>
       <c r="H4" t="n">
-        <v>-5.427530646324158</v>
+        <v>-19.93068659305573</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[3.4089317321777344, 1.604522705078125, 0.10662841796875]</t>
+          <t>[3.2506446838378906, -1.1598472595214844, -17.24256134033203]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2334</t>
+          <t>2397</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1248</v>
+        <v>969</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[3.699047952890396, -14.163208246231079, -8.058695323765278]</t>
+          <t>[-0.6533946990966797, -10.039370059967041, -4.531984776258469]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>16.70993698088557</v>
+        <v>11.03425402308687</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.613813113001731</v>
+        <v>2.553530355577822</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1564226792711224</v>
+        <v>0.2314184855845346</v>
       </c>
       <c r="G5" t="n">
-        <v>14.63828622427812</v>
+        <v>10.06061011240224</v>
       </c>
       <c r="H5" t="n">
-        <v>-8.058695323765278</v>
+        <v>-4.531984776258469</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[-5.621417999267578, 1.4537582397460938, -3.01348876953125]</t>
+          <t>[5.960777282714844, 2.729267120361328, -17.362136840820312]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2230</t>
+          <t>2276</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1225</v>
+        <v>707</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-0.9318812191486359, -2.220571478828788, -13.284280061721802]</t>
+          <t>[0.7507225573062897, 4.773991197347641, -15.556918144226074]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>13.50079394174466</v>
+        <v>16.29025102497048</v>
       </c>
       <c r="E6" t="n">
-        <v>13.21380134611099</v>
+        <v>9.975358728624318</v>
       </c>
       <c r="F6" t="n">
-        <v>0.978742539374201</v>
+        <v>0.6123514434083066</v>
       </c>
       <c r="G6" t="n">
-        <v>2.408181948937791</v>
+        <v>4.832657272184864</v>
       </c>
       <c r="H6" t="n">
-        <v>-13.2842800617218</v>
+        <v>-15.55691814422607</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[1.012481689453125, -0.3558006286621094, -11.524864196777344]</t>
+          <t>[1.5978927612304688, -2.971912384033203, -4.38037109375]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2515</t>
+          <t>2520</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1219</v>
+        <v>787</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-7.849294036626816, 10.417173475027084, -12.752289831638336]</t>
+          <t>[-13.154578566551208, 3.3986346274614334, -9.698930323123932]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>18.24143130437794</v>
+        <v>16.69319933408097</v>
       </c>
       <c r="E7" t="n">
-        <v>5.720300019439035</v>
+        <v>3.148076982409002</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3135883321867491</v>
+        <v>0.1885844001144743</v>
       </c>
       <c r="G7" t="n">
-        <v>13.04334773293395</v>
+        <v>13.58652474308822</v>
       </c>
       <c r="H7" t="n">
-        <v>-12.75228983163834</v>
+        <v>-9.698930323123932</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[9.918651580810547, -4.4640045166015625, -19.940650939941406]</t>
+          <t>[7.958831787109375, 0.7162055969238281, -16.491683959960938]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>2223</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>959</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[4.85807591676712, 4.0646979212760925, -12.652371108531952]</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>14.14938745926172</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10.54082691116718</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.7449670129901985</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6.334245874948247</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-12.65237110853195</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[-1.7506599426269531, -5.281822204589844, -18.320533752441406]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2391</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>777</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[2.6081194430589676, -4.2312188148498535, -9.195363759994507]</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>10.45276108820162</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8.878427138099886</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.8493858286038185</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4.970462723771462</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-9.195363759994507</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[0.9539413452148438, 1.3969001770019531, -13.710983276367188]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2333</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1248</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[-3.3383673429489136, 11.95009446144104, -6.190477780997753]</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>13.86619880539935</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9.180969760765738</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.6621115050788658</v>
+      </c>
+      <c r="G10" t="n">
+        <v>12.40763692867548</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-6.190477780997753</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[-1.2147483825683594, 0.6887054443359375, -0.09078216552734375]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2247</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>794</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[0.25486694276332855, 3.973426640033722, -6.730924963951111]</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>7.820385367268257</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.182860451367143</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.4069953463788129</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.98159219687843</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-6.730924963951111</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[2.0873985290527344, -2.63055419921875, -3.9116897583007812]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2372</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1248</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[-9.981672696769238, -4.027546465396881, -5.427530646324158]</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>12.05458457488881</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-10.895716383016</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.9038649416184051</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10.76359235368747</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-5.427530646324158</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[3.4089317321777344, 1.604522705078125, 0.10662841796875]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2231</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>806</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[6.534557104110718, 3.7390658259391785, 4.73402202129364]</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>8.893369119500393</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-4.397830002368352</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.4945066310949894</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7.528681810090666</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.73402202129364</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>[0.74676513671875, 0.5153694152832031, -20.509132385253906]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2381</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>946</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[9.601044237613678, -11.661227107048035, -1.7264618799090385]</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>15.20345153961908</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-4.061560214754879</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.2671472464111686</v>
+      </c>
+      <c r="G14" t="n">
+        <v>15.10510735131554</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-1.726461879909039</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>[-0.46352386474609375, 6.322200775146484, -12.438140869140625]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2343</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1186</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[2.4428126215934753, 0.49578909622505307, -8.41463577747345]</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>8.7760603689633</v>
+      </c>
+      <c r="E15" t="n">
+        <v>8.280676746972738</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9435528470448431</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.492617165180414</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-8.41463577747345</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>[4.815853118896484, -3.690704345703125, -12.438545227050781]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2334</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1248</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[3.699047952890396, -14.163208246231079, -8.058695323765278]</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>16.70993698088557</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-2.613813113001731</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.1564226792711224</v>
+      </c>
+      <c r="G16" t="n">
+        <v>14.63828622427812</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-8.058695323765278</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>[-5.621417999267578, 1.4537582397460938, -3.01348876953125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2230</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1225</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[-0.9318812191486359, -2.220571478828788, -13.284280061721802]</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>13.50079394174466</v>
+      </c>
+      <c r="E17" t="n">
+        <v>13.21380134611099</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.978742539374201</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.408181948937791</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-13.2842800617218</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>[1.012481689453125, -0.3558006286621094, -11.524864196777344]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2515</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1219</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[-7.849294036626816, 10.417173475027084, -12.752289831638336]</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>18.24143130437794</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5.720300019439035</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.3135883321867491</v>
+      </c>
+      <c r="G18" t="n">
+        <v>13.04334773293395</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-12.75228983163834</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>[9.918651580810547, -4.4640045166015625, -19.940650939941406]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>2280</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B19" t="n">
         <v>1248</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>[13.266657590866089, 2.8086227253079414, -3.7235074639320374]</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D19" t="n">
         <v>14.06261259796197</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E19" t="n">
         <v>0.5318098541636465</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F19" t="n">
         <v>0.03781728682767804</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G19" t="n">
         <v>13.56069929046438</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H19" t="n">
         <v>-3.723507463932037</v>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>[-0.21262359619140625, 0.6027069091796875, -0.4115142822265625]</t>
         </is>

--- a/results_G2/forces/permeation_frames_forces.xlsx
+++ b/results_G2/forces/permeation_frames_forces.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,630 +483,140 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>594</v>
+        <v>959</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-12.920562520623207, 17.63073266670108, -7.267282247543335]</t>
+          <t>[4.85807591676712, 4.0646979212760925, -12.652371108531952]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>23.03469256316377</v>
+        <v>14.14938745926172</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.033864768512299</v>
+        <v>10.54082691116718</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.3487723895807388</v>
+        <v>0.7449670129901985</v>
       </c>
       <c r="G2" t="n">
-        <v>21.85826320213968</v>
+        <v>6.334245874948247</v>
       </c>
       <c r="H2" t="n">
-        <v>-7.267282247543335</v>
+        <v>-12.65237110853195</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[3.486774444580078, -5.9720001220703125, -8.539749145507812]</t>
+          <t>[-1.7506599426269531, -5.281822204589844, -18.320533752441406]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2399</t>
+          <t>2397</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>692</v>
+        <v>969</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[8.804081737995148, 0.3854767978191376, -1.8715763092041016]</t>
+          <t>[-0.6533946990966797, -10.039370059967041, -4.531984776258469]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9.009064629146058</v>
+        <v>11.03425402308687</v>
       </c>
       <c r="E3" t="n">
-        <v>2.104128715708714</v>
+        <v>2.553530355577822</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2335568455021904</v>
+        <v>0.2314184855845346</v>
       </c>
       <c r="G3" t="n">
-        <v>8.812516531102597</v>
+        <v>10.06061011240224</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.871576309204102</v>
+        <v>-4.531984776258469</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[0.3143463134765625, -1.2615242004394531, -8.960662841796875]</t>
+          <t>[5.960777282714844, 2.729267120361328, -17.362136840820312]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2398</t>
+          <t>2231</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>565</v>
+        <v>806</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-0.7639022618532181, 4.1012390702962875, -19.930686593055725]</t>
+          <t>[6.534557104110718, 3.7390658259391785, 4.73402202129364]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>20.36261222554711</v>
+        <v>8.893369119500393</v>
       </c>
       <c r="E4" t="n">
-        <v>19.13130058928689</v>
+        <v>-4.397830002368352</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9395307624276515</v>
+        <v>-0.4945066310949894</v>
       </c>
       <c r="G4" t="n">
-        <v>4.171775230928581</v>
+        <v>7.528681810090666</v>
       </c>
       <c r="H4" t="n">
-        <v>-19.93068659305573</v>
+        <v>4.73402202129364</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[3.2506446838378906, -1.1598472595214844, -17.24256134033203]</t>
+          <t>[0.74676513671875, 0.5153694152832031, -20.509132385253906]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2397</t>
+          <t>2381</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>969</v>
+        <v>946</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[-0.6533946990966797, -10.039370059967041, -4.531984776258469]</t>
+          <t>[9.601044237613678, -11.661227107048035, -1.7264618799090385]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>11.03425402308687</v>
+        <v>15.20345153961908</v>
       </c>
       <c r="E5" t="n">
-        <v>2.553530355577822</v>
+        <v>-4.061560214754879</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2314184855845346</v>
+        <v>-0.2671472464111686</v>
       </c>
       <c r="G5" t="n">
-        <v>10.06061011240224</v>
+        <v>15.10510735131554</v>
       </c>
       <c r="H5" t="n">
-        <v>-4.531984776258469</v>
+        <v>-1.726461879909039</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[5.960777282714844, 2.729267120361328, -17.362136840820312]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2276</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>707</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>[0.7507225573062897, 4.773991197347641, -15.556918144226074]</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>16.29025102497048</v>
-      </c>
-      <c r="E6" t="n">
-        <v>9.975358728624318</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.6123514434083066</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4.832657272184864</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-15.55691814422607</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>[1.5978927612304688, -2.971912384033203, -4.38037109375]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2520</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>787</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>[-13.154578566551208, 3.3986346274614334, -9.698930323123932]</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>16.69319933408097</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.148076982409002</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.1885844001144743</v>
-      </c>
-      <c r="G7" t="n">
-        <v>13.58652474308822</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-9.698930323123932</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>[7.958831787109375, 0.7162055969238281, -16.491683959960938]</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2223</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>959</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>[4.85807591676712, 4.0646979212760925, -12.652371108531952]</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>14.14938745926172</v>
-      </c>
-      <c r="E8" t="n">
-        <v>10.54082691116718</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.7449670129901985</v>
-      </c>
-      <c r="G8" t="n">
-        <v>6.334245874948247</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-12.65237110853195</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>[-1.7506599426269531, -5.281822204589844, -18.320533752441406]</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2391</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>777</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>[2.6081194430589676, -4.2312188148498535, -9.195363759994507]</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>10.45276108820162</v>
-      </c>
-      <c r="E9" t="n">
-        <v>8.878427138099886</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.8493858286038185</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4.970462723771462</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-9.195363759994507</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>[0.9539413452148438, 1.3969001770019531, -13.710983276367188]</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2333</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1248</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>[-3.3383673429489136, 11.95009446144104, -6.190477780997753]</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>13.86619880539935</v>
-      </c>
-      <c r="E10" t="n">
-        <v>9.180969760765738</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.6621115050788658</v>
-      </c>
-      <c r="G10" t="n">
-        <v>12.40763692867548</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-6.190477780997753</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>[-1.2147483825683594, 0.6887054443359375, -0.09078216552734375]</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2247</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>794</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>[0.25486694276332855, 3.973426640033722, -6.730924963951111]</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>7.820385367268257</v>
-      </c>
-      <c r="E11" t="n">
-        <v>3.182860451367143</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.4069953463788129</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3.98159219687843</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-6.730924963951111</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>[2.0873985290527344, -2.63055419921875, -3.9116897583007812]</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2372</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1248</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>[-9.981672696769238, -4.027546465396881, -5.427530646324158]</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>12.05458457488881</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-10.895716383016</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.9038649416184051</v>
-      </c>
-      <c r="G12" t="n">
-        <v>10.76359235368747</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-5.427530646324158</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>[3.4089317321777344, 1.604522705078125, 0.10662841796875]</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2231</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>806</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>[6.534557104110718, 3.7390658259391785, 4.73402202129364]</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>8.893369119500393</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-4.397830002368352</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.4945066310949894</v>
-      </c>
-      <c r="G13" t="n">
-        <v>7.528681810090666</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4.73402202129364</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>[0.74676513671875, 0.5153694152832031, -20.509132385253906]</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2381</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>946</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>[9.601044237613678, -11.661227107048035, -1.7264618799090385]</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>15.20345153961908</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-4.061560214754879</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.2671472464111686</v>
-      </c>
-      <c r="G14" t="n">
-        <v>15.10510735131554</v>
-      </c>
-      <c r="H14" t="n">
-        <v>-1.726461879909039</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
           <t>[-0.46352386474609375, 6.322200775146484, -12.438140869140625]</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2343</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1186</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>[2.4428126215934753, 0.49578909622505307, -8.41463577747345]</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>8.7760603689633</v>
-      </c>
-      <c r="E15" t="n">
-        <v>8.280676746972738</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.9435528470448431</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2.492617165180414</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-8.41463577747345</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>[4.815853118896484, -3.690704345703125, -12.438545227050781]</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2334</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1248</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>[3.699047952890396, -14.163208246231079, -8.058695323765278]</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>16.70993698088557</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-2.613813113001731</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.1564226792711224</v>
-      </c>
-      <c r="G16" t="n">
-        <v>14.63828622427812</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-8.058695323765278</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>[-5.621417999267578, 1.4537582397460938, -3.01348876953125]</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2230</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1225</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>[-0.9318812191486359, -2.220571478828788, -13.284280061721802]</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>13.50079394174466</v>
-      </c>
-      <c r="E17" t="n">
-        <v>13.21380134611099</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.978742539374201</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2.408181948937791</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-13.2842800617218</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>[1.012481689453125, -0.3558006286621094, -11.524864196777344]</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2515</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1219</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>[-7.849294036626816, 10.417173475027084, -12.752289831638336]</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>18.24143130437794</v>
-      </c>
-      <c r="E18" t="n">
-        <v>5.720300019439035</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.3135883321867491</v>
-      </c>
-      <c r="G18" t="n">
-        <v>13.04334773293395</v>
-      </c>
-      <c r="H18" t="n">
-        <v>-12.75228983163834</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>[9.918651580810547, -4.4640045166015625, -19.940650939941406]</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2280</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1248</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>[13.266657590866089, 2.8086227253079414, -3.7235074639320374]</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>14.06261259796197</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.5318098541636465</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.03781728682767804</v>
-      </c>
-      <c r="G19" t="n">
-        <v>13.56069929046438</v>
-      </c>
-      <c r="H19" t="n">
-        <v>-3.723507463932037</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>[-0.21262359619140625, 0.6027069091796875, -0.4115142822265625]</t>
         </is>
       </c>
     </row>

--- a/results_G2/forces/permeation_frames_forces.xlsx
+++ b/results_G2/forces/permeation_frames_forces.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,202 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ion_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>frame</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ionic_force</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ionic_force_magnitude</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>motion_component_ionic</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>cosine_ionic_motion</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>radial_force</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>axial_force</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>motion_vector</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2223</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>959</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[4.85807591676712, 4.0646979212760925, -12.652371108531952]</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>14.14938745926172</v>
-      </c>
-      <c r="E2" t="n">
-        <v>10.54082691116718</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.7449670129901985</v>
-      </c>
-      <c r="G2" t="n">
-        <v>6.334245874948247</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-12.65237110853195</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>[-1.7506599426269531, -5.281822204589844, -18.320533752441406]</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2397</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>969</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[-0.6533946990966797, -10.039370059967041, -4.531984776258469]</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>11.03425402308687</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.553530355577822</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.2314184855845346</v>
-      </c>
-      <c r="G3" t="n">
-        <v>10.06061011240224</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-4.531984776258469</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[5.960777282714844, 2.729267120361328, -17.362136840820312]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2231</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>806</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[6.534557104110718, 3.7390658259391785, 4.73402202129364]</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>8.893369119500393</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-4.397830002368352</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-0.4945066310949894</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7.528681810090666</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4.73402202129364</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>[0.74676513671875, 0.5153694152832031, -20.509132385253906]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2381</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>946</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>[9.601044237613678, -11.661227107048035, -1.7264618799090385]</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>15.20345153961908</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-4.061560214754879</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-0.2671472464111686</v>
-      </c>
-      <c r="G5" t="n">
-        <v>15.10510735131554</v>
-      </c>
-      <c r="H5" t="n">
-        <v>-1.726461879909039</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>[-0.46352386474609375, 6.322200775146484, -12.438140869140625]</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/results_G2/forces/permeation_frames_forces.xlsx
+++ b/results_G2/forces/permeation_frames_forces.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/results_G2/forces/permeation_frames_forces.xlsx
+++ b/results_G2/forces/permeation_frames_forces.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,692 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ion_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>frame</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ionic_force</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ionic_force_magnitude</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>motion_component_ionic</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>cosine_ionic_motion</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>radial_force</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>axial_force</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>motion_vector</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2400_1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>594</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[-12.920562520623207, 17.63073266670108, -7.267282247543335]</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>23.03469256316377</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-8.033864768512299</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.3487723895807388</v>
+      </c>
+      <c r="G2" t="n">
+        <v>21.85826320213968</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-7.267282247543335</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[3.486774444580078, -5.9720001220703125, -8.539749145507812]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2399_1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>692</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[8.804081737995148, 0.3854767978191376, -1.8715763092041016]</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>9.009064629146058</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.104128715708714</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.2335568455021904</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8.812516531102597</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-1.871576309204102</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[0.3143463134765625, -1.2615242004394531, -8.960662841796875]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2398_1</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>565</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[-0.7639022618532181, 4.1012390702962875, -19.930686593055725]</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>20.36261222554711</v>
+      </c>
+      <c r="E4" t="n">
+        <v>19.13130058928689</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9395307624276515</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.171775230928581</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-19.93068659305573</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[3.2506446838378906, -1.1598472595214844, -17.24256134033203]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2397_1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>969</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[-0.6533946990966797, -10.039370059967041, -4.531984776258469]</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>11.03425402308687</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.553530355577822</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.2314184855845346</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10.06061011240224</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-4.531984776258469</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[5.960777282714844, 2.729267120361328, -17.362136840820312]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2276_1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>707</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[0.7507225573062897, 4.773991197347641, -15.556918144226074]</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>16.29025102497048</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9.975358728624318</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6123514434083066</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4.832657272184864</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-15.55691814422607</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[1.5978927612304688, -2.971912384033203, -4.38037109375]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2520_1</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>787</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[-13.154578566551208, 3.3986346274614334, -9.698930323123932]</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>16.69319933408097</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.148076982409002</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1885844001144743</v>
+      </c>
+      <c r="G7" t="n">
+        <v>13.58652474308822</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-9.698930323123932</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[7.958831787109375, 0.7162055969238281, -16.491683959960938]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2223_1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>959</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[4.85807591676712, 4.0646979212760925, -12.652371108531952]</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>14.14938745926172</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10.54082691116718</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.7449670129901985</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6.334245874948247</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-12.65237110853195</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[-1.7506599426269531, -5.281822204589844, -18.320533752441406]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2391_1</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>777</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[2.6081194430589676, -4.2312188148498535, -9.195363759994507]</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>10.45276108820162</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8.878427138099886</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.8493858286038185</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4.970462723771462</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-9.195363759994507</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[0.9539413452148438, 1.3969001770019531, -13.710983276367188]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2333_1</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1248</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[-3.3383673429489136, 11.95009446144104, -6.190477780997753]</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>13.86619880539935</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9.180969760765738</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.6621115050788658</v>
+      </c>
+      <c r="G10" t="n">
+        <v>12.40763692867548</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-6.190477780997753</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[-1.2147483825683594, 0.6887054443359375, -0.09078216552734375]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2247_1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>794</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[0.25486694276332855, 3.973426640033722, -6.730924963951111]</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>7.820385367268257</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.182860451367143</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.4069953463788129</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.98159219687843</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-6.730924963951111</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[2.0873985290527344, -2.63055419921875, -3.9116897583007812]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2372_1</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1248</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[-9.981672696769238, -4.027546465396881, -5.427530646324158]</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>12.05458457488881</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-10.895716383016</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.9038649416184051</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10.76359235368747</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-5.427530646324158</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[3.4089317321777344, 1.604522705078125, 0.10662841796875]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2231_1</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>806</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[6.534557104110718, 3.7390658259391785, 4.73402202129364]</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>8.893369119500393</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-4.397830002368352</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.4945066310949894</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7.528681810090666</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.73402202129364</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>[0.74676513671875, 0.5153694152832031, -20.509132385253906]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2381_1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>946</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[9.601044237613678, -11.661227107048035, -1.7264618799090385]</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>15.20345153961908</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-4.061560214754879</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.2671472464111686</v>
+      </c>
+      <c r="G14" t="n">
+        <v>15.10510735131554</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-1.726461879909039</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>[-0.46352386474609375, 6.322200775146484, -12.438140869140625]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2343_1</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1186</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[2.4428126215934753, 0.49578909622505307, -8.41463577747345]</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>8.7760603689633</v>
+      </c>
+      <c r="E15" t="n">
+        <v>8.280676746972738</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9435528470448431</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.492617165180414</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-8.41463577747345</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>[4.815853118896484, -3.690704345703125, -12.438545227050781]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2334_1</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1248</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[3.699047952890396, -14.163208246231079, -8.058695323765278]</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>16.70993698088557</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-2.613813113001731</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.1564226792711224</v>
+      </c>
+      <c r="G16" t="n">
+        <v>14.63828622427812</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-8.058695323765278</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>[-5.621417999267578, 1.4537582397460938, -3.01348876953125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2230_1</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1225</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[-0.9318812191486359, -2.220571478828788, -13.284280061721802]</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>13.50079394174466</v>
+      </c>
+      <c r="E17" t="n">
+        <v>13.21380134611099</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.978742539374201</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.408181948937791</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-13.2842800617218</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>[1.012481689453125, -0.3558006286621094, -11.524864196777344]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2515_1</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1219</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[-7.849294036626816, 10.417173475027084, -12.752289831638336]</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>18.24143130437794</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5.720300019439035</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.3135883321867491</v>
+      </c>
+      <c r="G18" t="n">
+        <v>13.04334773293395</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-12.75228983163834</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>[9.918651580810547, -4.4640045166015625, -19.940650939941406]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2280_1</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1248</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[13.266657590866089, 2.8086227253079414, -3.7235074639320374]</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>14.06261259796197</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.5318098541636465</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.03781728682767804</v>
+      </c>
+      <c r="G19" t="n">
+        <v>13.56069929046438</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-3.723507463932037</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>[-0.21262359619140625, 0.6027069091796875, -0.4115142822265625]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>